--- a/Code/Results/Cases/Case_4_190/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_190/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.8524878903352</v>
+        <v>12.91660428699544</v>
       </c>
       <c r="C2">
-        <v>15.46500531302186</v>
+        <v>9.616184804558625</v>
       </c>
       <c r="D2">
-        <v>7.293758771527252</v>
+        <v>5.957635169912753</v>
       </c>
       <c r="E2">
-        <v>30.16748822530694</v>
+        <v>16.59543228894451</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>25.35833166647323</v>
+        <v>22.07251136895522</v>
       </c>
       <c r="H2">
-        <v>8.038559772477711</v>
+        <v>12.0893259132711</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>10.83540441332491</v>
+        <v>15.65497906061422</v>
       </c>
       <c r="O2">
-        <v>14.16795374027612</v>
+        <v>17.57040133161088</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.41873866333767</v>
+        <v>12.24639895983978</v>
       </c>
       <c r="C3">
-        <v>14.56289354760068</v>
+        <v>9.155296927913563</v>
       </c>
       <c r="D3">
-        <v>6.785961653150617</v>
+        <v>5.833720889532115</v>
       </c>
       <c r="E3">
-        <v>27.9658619886134</v>
+        <v>15.6471175078519</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>23.86343304835425</v>
+        <v>21.77778417982498</v>
       </c>
       <c r="H3">
-        <v>7.917379503014263</v>
+        <v>12.11724971743237</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>10.95705496139625</v>
+        <v>15.69889818209061</v>
       </c>
       <c r="O3">
-        <v>13.66684638795279</v>
+        <v>17.5588476430608</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.48824619562846</v>
+        <v>11.81657305076334</v>
       </c>
       <c r="C4">
-        <v>13.98064567934007</v>
+        <v>8.858538919031741</v>
       </c>
       <c r="D4">
-        <v>6.45707974533043</v>
+        <v>5.758100068346023</v>
       </c>
       <c r="E4">
-        <v>26.55095293122016</v>
+        <v>15.03950291501773</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>22.93561083596138</v>
+        <v>21.6061507787689</v>
       </c>
       <c r="H4">
-        <v>7.851054244503393</v>
+        <v>12.13738669748682</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.03542288647429</v>
+        <v>15.72768387281925</v>
       </c>
       <c r="O4">
-        <v>13.36950826623118</v>
+        <v>17.55786416055057</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.09638705727968</v>
+        <v>11.63700034879369</v>
       </c>
       <c r="C5">
-        <v>13.73630459153747</v>
+        <v>8.734236639339667</v>
       </c>
       <c r="D5">
-        <v>6.318718101919226</v>
+        <v>5.727448897353611</v>
       </c>
       <c r="E5">
-        <v>25.95814474326398</v>
+        <v>14.78578878234094</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>22.55545271279317</v>
+        <v>21.53865402907826</v>
       </c>
       <c r="H5">
-        <v>7.826002485746653</v>
+        <v>12.14634229889647</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.0682679074222</v>
+        <v>15.73987246918448</v>
       </c>
       <c r="O5">
-        <v>13.25103890547459</v>
+        <v>17.55899686375376</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.0305519753353</v>
+        <v>11.60692202952868</v>
       </c>
       <c r="C6">
-        <v>13.69530710621502</v>
+        <v>8.713395745799456</v>
       </c>
       <c r="D6">
-        <v>6.295479965034516</v>
+        <v>5.722370684298506</v>
       </c>
       <c r="E6">
-        <v>25.85871976119013</v>
+        <v>14.74329979673544</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>22.49221793166225</v>
+        <v>21.52759668388681</v>
       </c>
       <c r="H6">
-        <v>7.821960303253873</v>
+        <v>12.14787456369872</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.07377633981194</v>
+        <v>15.74192407244747</v>
       </c>
       <c r="O6">
-        <v>13.23153295416269</v>
+        <v>17.55927744775456</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.48301284401624</v>
+        <v>11.81416887000021</v>
       </c>
       <c r="C7">
-        <v>13.97737894246995</v>
+        <v>8.856876050741132</v>
       </c>
       <c r="D7">
-        <v>6.455231376827602</v>
+        <v>5.75768596359329</v>
       </c>
       <c r="E7">
-        <v>26.54302424351914</v>
+        <v>15.03610556947122</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>22.93049159004249</v>
+        <v>21.6052304678524</v>
       </c>
       <c r="H7">
-        <v>7.850708462696915</v>
+        <v>12.13750444436736</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.03586218126819</v>
+        <v>15.7278463962986</v>
       </c>
       <c r="O7">
-        <v>13.36789949336002</v>
+        <v>17.55787323281703</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.36850218251265</v>
+        <v>12.68942348744916</v>
       </c>
       <c r="C8">
-        <v>15.15986770345268</v>
+        <v>9.460179092093639</v>
       </c>
       <c r="D8">
-        <v>7.122192372571925</v>
+        <v>5.914842280518664</v>
       </c>
       <c r="E8">
-        <v>29.42124357298463</v>
+        <v>16.27385833166596</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>24.84518715954558</v>
+        <v>21.96901455275609</v>
       </c>
       <c r="H8">
-        <v>7.995068022593609</v>
+        <v>12.0983315773404</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>10.87657776606211</v>
+        <v>15.66974524965163</v>
       </c>
       <c r="O8">
-        <v>13.9930829496252</v>
+        <v>17.56514798953852</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.67127390772832</v>
+        <v>14.25365946851758</v>
       </c>
       <c r="C9">
-        <v>17.25249960405165</v>
+        <v>10.53070983381396</v>
       </c>
       <c r="D9">
-        <v>8.296434956219558</v>
+        <v>6.224615080605407</v>
       </c>
       <c r="E9">
-        <v>34.5820879928666</v>
+        <v>18.60905250733134</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>28.50695268335646</v>
+        <v>22.75173893348916</v>
       </c>
       <c r="H9">
-        <v>8.344512513258879</v>
+        <v>12.04536293806524</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>10.59411537555942</v>
+        <v>15.57021053716696</v>
       </c>
       <c r="O9">
-        <v>15.29714247522213</v>
+        <v>17.62796580999826</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.86266226893938</v>
+        <v>15.302916438227</v>
       </c>
       <c r="C10">
-        <v>18.65184043513985</v>
+        <v>11.24512636666486</v>
       </c>
       <c r="D10">
-        <v>9.080515655924891</v>
+        <v>6.450480517506954</v>
       </c>
       <c r="E10">
-        <v>38.10572088165306</v>
+        <v>20.26560464001165</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>31.24663861585039</v>
+        <v>23.36244207070325</v>
       </c>
       <c r="H10">
-        <v>8.644537985113431</v>
+        <v>12.02112836065546</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.40600022431679</v>
+        <v>15.50581772203865</v>
       </c>
       <c r="O10">
-        <v>16.2984372691078</v>
+        <v>17.70370867372096</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.8099083747676</v>
+        <v>15.75744789650991</v>
       </c>
       <c r="C11">
-        <v>19.25878104942169</v>
+        <v>11.55395088612533</v>
       </c>
       <c r="D11">
-        <v>9.420806878827994</v>
+        <v>6.552324540392704</v>
       </c>
       <c r="E11">
-        <v>39.65723199644517</v>
+        <v>20.97676976288928</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>32.476998496074</v>
+        <v>23.64652943385287</v>
       </c>
       <c r="H11">
-        <v>8.79099684179482</v>
+        <v>12.01331767534353</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.32494999938364</v>
+        <v>15.47841163643403</v>
       </c>
       <c r="O11">
-        <v>16.76279334293569</v>
+        <v>17.74455629059249</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.1615968827423</v>
+        <v>15.92622269376973</v>
       </c>
       <c r="C12">
-        <v>19.48440113471476</v>
+        <v>11.66853677498055</v>
       </c>
       <c r="D12">
-        <v>9.54736807924113</v>
+        <v>6.590718930414941</v>
       </c>
       <c r="E12">
-        <v>40.23799432048855</v>
+        <v>21.24000830874481</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>32.93971897987645</v>
+        <v>23.75488372895691</v>
       </c>
       <c r="H12">
-        <v>8.847938435451113</v>
+        <v>12.01082387871279</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.29493975626832</v>
+        <v>15.46830431053116</v>
       </c>
       <c r="O12">
-        <v>16.97803801983688</v>
+        <v>17.76093775670293</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.08616427670734</v>
+        <v>15.890023828836</v>
       </c>
       <c r="C13">
-        <v>19.43599639624552</v>
+        <v>11.6439640570538</v>
       </c>
       <c r="D13">
-        <v>9.520212182462938</v>
+        <v>6.582458288872861</v>
       </c>
       <c r="E13">
-        <v>40.11320656058581</v>
+        <v>21.18358434695082</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>32.84020279382431</v>
+        <v>23.73151514967257</v>
       </c>
       <c r="H13">
-        <v>8.835608413285806</v>
+        <v>12.01134030231181</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.3013721428028</v>
+        <v>15.47046906966632</v>
       </c>
       <c r="O13">
-        <v>16.92532489150554</v>
+        <v>17.75736920191124</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.83898180007268</v>
+        <v>15.77140052187979</v>
       </c>
       <c r="C14">
-        <v>19.27742711315846</v>
+        <v>11.56342539173903</v>
       </c>
       <c r="D14">
-        <v>9.431264891213976</v>
+        <v>6.555486942464023</v>
       </c>
       <c r="E14">
-        <v>39.70514326805535</v>
+        <v>20.99854789873234</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>32.5151296910546</v>
+        <v>23.65542896132892</v>
       </c>
       <c r="H14">
-        <v>8.795651507013776</v>
+        <v>12.01310320163421</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.3224671840295</v>
+        <v>15.47757467700884</v>
       </c>
       <c r="O14">
-        <v>16.77733834324311</v>
+        <v>17.74588573734982</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.68666596764013</v>
+        <v>15.69830266755593</v>
       </c>
       <c r="C15">
-        <v>19.17975151892456</v>
+        <v>11.51378498619818</v>
       </c>
       <c r="D15">
-        <v>9.376484389997284</v>
+        <v>6.538942650468119</v>
       </c>
       <c r="E15">
-        <v>39.45433228945026</v>
+        <v>20.88441899428834</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>32.31560282120915</v>
+        <v>23.6089213842967</v>
       </c>
       <c r="H15">
-        <v>8.771371018802059</v>
+        <v>12.01424349667997</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.33547827474659</v>
+        <v>15.48196231321966</v>
       </c>
       <c r="O15">
-        <v>16.70132926104219</v>
+        <v>17.73897053139673</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.79976913613271</v>
+        <v>15.27274697141921</v>
       </c>
       <c r="C16">
-        <v>18.61158277362471</v>
+        <v>11.2246155274101</v>
       </c>
       <c r="D16">
-        <v>9.057951801091166</v>
+        <v>6.443802961404252</v>
       </c>
       <c r="E16">
-        <v>38.00334371258317</v>
+        <v>20.21827787215669</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>31.16577637733757</v>
+        <v>23.34399180394583</v>
       </c>
       <c r="H16">
-        <v>8.635171187807437</v>
+        <v>12.02170363602689</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.41139066278869</v>
+        <v>15.50764669123872</v>
       </c>
       <c r="O16">
-        <v>16.26826695846027</v>
+        <v>17.70116734858539</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.24305973825743</v>
+        <v>15.00579278440667</v>
       </c>
       <c r="C17">
-        <v>18.25546868883112</v>
+        <v>11.04305183800684</v>
       </c>
       <c r="D17">
-        <v>8.858383754034453</v>
+        <v>6.385175937696992</v>
       </c>
       <c r="E17">
-        <v>37.10046760676786</v>
+        <v>19.79878428733951</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>30.4545485774302</v>
+        <v>23.1829837384029</v>
       </c>
       <c r="H17">
-        <v>8.554204198258809</v>
+        <v>12.02710466848204</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.45914020697972</v>
+        <v>15.5238860351064</v>
       </c>
       <c r="O17">
-        <v>16.00484773613552</v>
+        <v>17.67960981981205</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.91817593634205</v>
+        <v>14.850106773271</v>
       </c>
       <c r="C18">
-        <v>18.04784899835345</v>
+        <v>10.93710104264379</v>
       </c>
       <c r="D18">
-        <v>8.742051034148533</v>
+        <v>6.351372551546965</v>
       </c>
       <c r="E18">
-        <v>36.57627643028562</v>
+        <v>19.55350893769889</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>30.04328319522987</v>
+        <v>23.09097437294959</v>
       </c>
       <c r="H18">
-        <v>8.508570244138831</v>
+        <v>12.03051359896979</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.48702824725054</v>
+        <v>15.533404074447</v>
       </c>
       <c r="O18">
-        <v>15.85416919030037</v>
+        <v>17.66781257529947</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.80736863612815</v>
+        <v>14.79702882930497</v>
       </c>
       <c r="C19">
-        <v>17.97707184297147</v>
+        <v>10.90096800106682</v>
       </c>
       <c r="D19">
-        <v>8.702395488034851</v>
+        <v>6.339914421985217</v>
       </c>
       <c r="E19">
-        <v>36.39793805649488</v>
+        <v>19.46977594881948</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>29.90365773609683</v>
+        <v>23.0599281678595</v>
       </c>
       <c r="H19">
-        <v>8.493278781476508</v>
+        <v>12.03171968275219</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.49654255320527</v>
+        <v>15.53665723787499</v>
       </c>
       <c r="O19">
-        <v>15.80329604435521</v>
+        <v>17.66392178773061</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.30280583786664</v>
+        <v>15.03443265737676</v>
       </c>
       <c r="C20">
-        <v>18.29366635527067</v>
+        <v>11.06253720572674</v>
       </c>
       <c r="D20">
-        <v>8.879787763634049</v>
+        <v>6.391425751744843</v>
       </c>
       <c r="E20">
-        <v>37.19708112186083</v>
+        <v>19.84385318472134</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>30.53048554718974</v>
+        <v>23.20006232196189</v>
       </c>
       <c r="H20">
-        <v>8.562726061554624</v>
+        <v>12.02649840825618</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.45401311489578</v>
+        <v>15.52213895227338</v>
       </c>
       <c r="O20">
-        <v>16.0328031239015</v>
+        <v>17.68184237960993</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.91177457109423</v>
+        <v>15.80633437582047</v>
       </c>
       <c r="C21">
-        <v>19.32411671574413</v>
+        <v>11.58714581957586</v>
       </c>
       <c r="D21">
-        <v>9.457452802446541</v>
+        <v>6.563414062458563</v>
       </c>
       <c r="E21">
-        <v>39.82517942002987</v>
+        <v>21.05306190051721</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>32.6106966826956</v>
+        <v>23.67775724232886</v>
       </c>
       <c r="H21">
-        <v>8.807347245701827</v>
+        <v>12.012572790936</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.31625229033073</v>
+        <v>15.47548024342784</v>
       </c>
       <c r="O21">
-        <v>16.81383128304558</v>
+        <v>17.74923397488892</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.92251788240895</v>
+        <v>16.29128807805013</v>
       </c>
       <c r="C22">
-        <v>19.97303860206551</v>
+        <v>11.91624504324614</v>
       </c>
       <c r="D22">
-        <v>9.821615611315019</v>
+        <v>6.674799765854648</v>
       </c>
       <c r="E22">
-        <v>41.50373718970041</v>
+        <v>21.80801825291463</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>33.95175840964142</v>
+        <v>23.99442735728536</v>
       </c>
       <c r="H22">
-        <v>8.975876859157756</v>
+        <v>12.00617646312298</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.23020845358058</v>
+        <v>15.44656407714858</v>
       </c>
       <c r="O22">
-        <v>17.51353821987884</v>
+        <v>17.79859823651951</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.38675522732567</v>
+        <v>16.03426582567513</v>
       </c>
       <c r="C23">
-        <v>19.62892291415384</v>
+        <v>11.7418675246386</v>
       </c>
       <c r="D23">
-        <v>9.628458793928715</v>
+        <v>6.615457492374204</v>
       </c>
       <c r="E23">
-        <v>40.61120284033271</v>
+        <v>21.4083054677985</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>33.23763517990719</v>
+        <v>23.82504698356261</v>
       </c>
       <c r="H23">
-        <v>8.885121210776129</v>
+        <v>12.00934227292949</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.27575520928679</v>
+        <v>15.46185295675444</v>
       </c>
       <c r="O23">
-        <v>17.13578095942172</v>
+        <v>17.77176714497698</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.27580966155939</v>
+        <v>15.02149145049572</v>
       </c>
       <c r="C24">
-        <v>18.27640617949298</v>
+        <v>11.05373275055239</v>
       </c>
       <c r="D24">
-        <v>8.870115993805939</v>
+        <v>6.388600512658221</v>
       </c>
       <c r="E24">
-        <v>37.15341813245593</v>
+        <v>19.82349031918519</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>30.49616183725957</v>
+        <v>23.19233935174436</v>
       </c>
       <c r="H24">
-        <v>8.558870480441621</v>
+        <v>12.02677155223966</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.45632971689982</v>
+        <v>15.522928241971</v>
       </c>
       <c r="O24">
-        <v>16.02016210982782</v>
+        <v>17.68083118084764</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.81951575097735</v>
+        <v>13.84761771225597</v>
       </c>
       <c r="C25">
-        <v>16.71069859312366</v>
+        <v>10.25355573605997</v>
       </c>
       <c r="D25">
-        <v>7.992795628878444</v>
+        <v>6.14092798251398</v>
       </c>
       <c r="E25">
-        <v>33.23509837436745</v>
+        <v>17.96117850399246</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>27.52785163044782</v>
+        <v>22.53323823922042</v>
       </c>
       <c r="H25">
-        <v>8.242570565333375</v>
+        <v>12.05712362738627</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>10.66721613236141</v>
+        <v>15.59560020016266</v>
       </c>
       <c r="O25">
-        <v>14.93651257688965</v>
+        <v>17.60576858884735</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_190/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_190/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.91660428699544</v>
+        <v>21.85248789033519</v>
       </c>
       <c r="C2">
-        <v>9.616184804558625</v>
+        <v>15.46500531302187</v>
       </c>
       <c r="D2">
-        <v>5.957635169912753</v>
+        <v>7.293758771527267</v>
       </c>
       <c r="E2">
-        <v>16.59543228894451</v>
+        <v>30.16748822530693</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>22.07251136895522</v>
+        <v>25.35833166647324</v>
       </c>
       <c r="H2">
-        <v>12.0893259132711</v>
+        <v>8.038559772477711</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>15.65497906061422</v>
+        <v>10.83540441332491</v>
       </c>
       <c r="O2">
-        <v>17.57040133161088</v>
+        <v>14.16795374027612</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.24639895983978</v>
+        <v>20.41873866333766</v>
       </c>
       <c r="C3">
-        <v>9.155296927913563</v>
+        <v>14.56289354760075</v>
       </c>
       <c r="D3">
-        <v>5.833720889532115</v>
+        <v>6.785961653150617</v>
       </c>
       <c r="E3">
-        <v>15.6471175078519</v>
+        <v>27.96586198861335</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>21.77778417982498</v>
+        <v>23.86343304835427</v>
       </c>
       <c r="H3">
-        <v>12.11724971743237</v>
+        <v>7.917379503014263</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>15.69889818209061</v>
+        <v>10.95705496139624</v>
       </c>
       <c r="O3">
-        <v>17.5588476430608</v>
+        <v>13.6668463879528</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.81657305076334</v>
+        <v>19.48824619562837</v>
       </c>
       <c r="C4">
-        <v>8.858538919031741</v>
+        <v>13.98064567934024</v>
       </c>
       <c r="D4">
-        <v>5.758100068346023</v>
+        <v>6.457079745330423</v>
       </c>
       <c r="E4">
-        <v>15.03950291501773</v>
+        <v>26.55095293122019</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>21.6061507787689</v>
+        <v>22.93561083596142</v>
       </c>
       <c r="H4">
-        <v>12.13738669748682</v>
+        <v>7.851054244503386</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>15.72768387281925</v>
+        <v>11.03542288647435</v>
       </c>
       <c r="O4">
-        <v>17.55786416055057</v>
+        <v>13.36950826623124</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.63700034879369</v>
+        <v>19.09638705727966</v>
       </c>
       <c r="C5">
-        <v>8.734236639339667</v>
+        <v>13.7363045915374</v>
       </c>
       <c r="D5">
-        <v>5.727448897353611</v>
+        <v>6.318718101919268</v>
       </c>
       <c r="E5">
-        <v>14.78578878234094</v>
+        <v>25.95814474326412</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>21.53865402907826</v>
+        <v>22.55545271279323</v>
       </c>
       <c r="H5">
-        <v>12.14634229889647</v>
+        <v>7.826002485746707</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>15.73987246918448</v>
+        <v>11.0682679074222</v>
       </c>
       <c r="O5">
-        <v>17.55899686375376</v>
+        <v>13.25103890547464</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.60692202952868</v>
+        <v>19.03055197533532</v>
       </c>
       <c r="C6">
-        <v>8.713395745799456</v>
+        <v>13.69530710621511</v>
       </c>
       <c r="D6">
-        <v>5.722370684298506</v>
+        <v>6.295479965034516</v>
       </c>
       <c r="E6">
-        <v>14.74329979673544</v>
+        <v>25.85871976119012</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>21.52759668388681</v>
+        <v>22.49221793166218</v>
       </c>
       <c r="H6">
-        <v>12.14787456369872</v>
+        <v>7.821960303253807</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>15.74192407244747</v>
+        <v>11.07377633981191</v>
       </c>
       <c r="O6">
-        <v>17.55927744775456</v>
+        <v>13.23153295416259</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.81416887000021</v>
+        <v>19.48301284401623</v>
       </c>
       <c r="C7">
-        <v>8.856876050741132</v>
+        <v>13.97737894247006</v>
       </c>
       <c r="D7">
-        <v>5.75768596359329</v>
+        <v>6.455231376827599</v>
       </c>
       <c r="E7">
-        <v>15.03610556947122</v>
+        <v>26.54302424351911</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>21.6052304678524</v>
+        <v>22.93049159004247</v>
       </c>
       <c r="H7">
-        <v>12.13750444436736</v>
+        <v>7.850708462696835</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>15.7278463962986</v>
+        <v>11.03586218126813</v>
       </c>
       <c r="O7">
-        <v>17.55787323281703</v>
+        <v>13.36789949335995</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.68942348744916</v>
+        <v>21.36850218251254</v>
       </c>
       <c r="C8">
-        <v>9.460179092093639</v>
+        <v>15.15986770345275</v>
       </c>
       <c r="D8">
-        <v>5.914842280518664</v>
+        <v>7.122192372571775</v>
       </c>
       <c r="E8">
-        <v>16.27385833166596</v>
+        <v>29.42124357298458</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>21.96901455275609</v>
+        <v>24.84518715954557</v>
       </c>
       <c r="H8">
-        <v>12.0983315773404</v>
+        <v>7.995068022593646</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>15.66974524965163</v>
+        <v>10.87657776606214</v>
       </c>
       <c r="O8">
-        <v>17.56514798953852</v>
+        <v>13.99308294962528</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.25365946851758</v>
+        <v>24.67127390772834</v>
       </c>
       <c r="C9">
-        <v>10.53070983381396</v>
+        <v>17.2524996040517</v>
       </c>
       <c r="D9">
-        <v>6.224615080605407</v>
+        <v>8.296434956219713</v>
       </c>
       <c r="E9">
-        <v>18.60905250733134</v>
+        <v>34.58208799286657</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>22.75173893348916</v>
+        <v>28.50695268335655</v>
       </c>
       <c r="H9">
-        <v>12.04536293806524</v>
+        <v>8.344512513258893</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>15.57021053716696</v>
+        <v>10.59411537555947</v>
       </c>
       <c r="O9">
-        <v>17.62796580999826</v>
+        <v>15.29714247522217</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.302916438227</v>
+        <v>26.86266226893941</v>
       </c>
       <c r="C10">
-        <v>11.24512636666486</v>
+        <v>18.65184043514004</v>
       </c>
       <c r="D10">
-        <v>6.450480517506954</v>
+        <v>9.080515655924891</v>
       </c>
       <c r="E10">
-        <v>20.26560464001165</v>
+        <v>38.10572088165306</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>23.36244207070325</v>
+        <v>31.24663861585049</v>
       </c>
       <c r="H10">
-        <v>12.02112836065546</v>
+        <v>8.644537985113436</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>15.50581772203865</v>
+        <v>10.40600022431675</v>
       </c>
       <c r="O10">
-        <v>17.70370867372096</v>
+        <v>16.2984372691078</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.75744789650991</v>
+        <v>27.80990837476758</v>
       </c>
       <c r="C11">
-        <v>11.55395088612533</v>
+        <v>19.25878104942175</v>
       </c>
       <c r="D11">
-        <v>6.552324540392704</v>
+        <v>9.420806878827994</v>
       </c>
       <c r="E11">
-        <v>20.97676976288928</v>
+        <v>39.6572319964453</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>23.64652943385287</v>
+        <v>32.47699849607404</v>
       </c>
       <c r="H11">
-        <v>12.01331767534353</v>
+        <v>8.790996841794811</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>15.47841163643403</v>
+        <v>10.32494999938361</v>
       </c>
       <c r="O11">
-        <v>17.74455629059249</v>
+        <v>16.76279334293569</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.92622269376973</v>
+        <v>28.16159688274227</v>
       </c>
       <c r="C12">
-        <v>11.66853677498055</v>
+        <v>19.48440113471473</v>
       </c>
       <c r="D12">
-        <v>6.590718930414941</v>
+        <v>9.547368079241028</v>
       </c>
       <c r="E12">
-        <v>21.24000830874481</v>
+        <v>40.23799432048845</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>23.75488372895691</v>
+        <v>32.93971897987642</v>
       </c>
       <c r="H12">
-        <v>12.01082387871279</v>
+        <v>8.847938435451121</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>15.46830431053116</v>
+        <v>10.29493975626832</v>
       </c>
       <c r="O12">
-        <v>17.76093775670293</v>
+        <v>16.97803801983689</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.890023828836</v>
+        <v>28.08616427670729</v>
       </c>
       <c r="C13">
-        <v>11.6439640570538</v>
+        <v>19.43599639624556</v>
       </c>
       <c r="D13">
-        <v>6.582458288872861</v>
+        <v>9.520212182462858</v>
       </c>
       <c r="E13">
-        <v>21.18358434695082</v>
+        <v>40.11320656058584</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>23.73151514967257</v>
+        <v>32.8402027938243</v>
       </c>
       <c r="H13">
-        <v>12.01134030231181</v>
+        <v>8.83560841328582</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>15.47046906966632</v>
+        <v>10.30137214280279</v>
       </c>
       <c r="O13">
-        <v>17.75736920191124</v>
+        <v>16.92532489150553</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.77140052187979</v>
+        <v>27.83898180007268</v>
       </c>
       <c r="C14">
-        <v>11.56342539173903</v>
+        <v>19.27742711315834</v>
       </c>
       <c r="D14">
-        <v>6.555486942464023</v>
+        <v>9.431264891214031</v>
       </c>
       <c r="E14">
-        <v>20.99854789873234</v>
+        <v>39.70514326805538</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>23.65542896132892</v>
+        <v>32.51512969105448</v>
       </c>
       <c r="H14">
-        <v>12.01310320163421</v>
+        <v>8.795651507013767</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>15.47757467700884</v>
+        <v>10.3224671840295</v>
       </c>
       <c r="O14">
-        <v>17.74588573734982</v>
+        <v>16.77733834324308</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.69830266755593</v>
+        <v>27.68666596764007</v>
       </c>
       <c r="C15">
-        <v>11.51378498619818</v>
+        <v>19.17975151892431</v>
       </c>
       <c r="D15">
-        <v>6.538942650468119</v>
+        <v>9.376484389997252</v>
       </c>
       <c r="E15">
-        <v>20.88441899428834</v>
+        <v>39.45433228945016</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>23.6089213842967</v>
+        <v>32.31560282120904</v>
       </c>
       <c r="H15">
-        <v>12.01424349667997</v>
+        <v>8.771371018802125</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>15.48196231321966</v>
+        <v>10.33547827474666</v>
       </c>
       <c r="O15">
-        <v>17.73897053139673</v>
+        <v>16.70132926104221</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.27274697141921</v>
+        <v>26.79976913613266</v>
       </c>
       <c r="C16">
-        <v>11.2246155274101</v>
+        <v>18.6115827736248</v>
       </c>
       <c r="D16">
-        <v>6.443802961404252</v>
+        <v>9.057951801091143</v>
       </c>
       <c r="E16">
-        <v>20.21827787215669</v>
+        <v>38.00334371258317</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>23.34399180394583</v>
+        <v>31.16577637733761</v>
       </c>
       <c r="H16">
-        <v>12.02170363602689</v>
+        <v>8.635171187807476</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>15.50764669123872</v>
+        <v>10.41139066278865</v>
       </c>
       <c r="O16">
-        <v>17.70116734858539</v>
+        <v>16.26826695846027</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.00579278440667</v>
+        <v>26.2430597382574</v>
       </c>
       <c r="C17">
-        <v>11.04305183800684</v>
+        <v>18.25546868883099</v>
       </c>
       <c r="D17">
-        <v>6.385175937696992</v>
+        <v>8.858383754034477</v>
       </c>
       <c r="E17">
-        <v>19.79878428733951</v>
+        <v>37.10046760676784</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>23.1829837384029</v>
+        <v>30.45454857743015</v>
       </c>
       <c r="H17">
-        <v>12.02710466848204</v>
+        <v>8.554204198258846</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>15.5238860351064</v>
+        <v>10.4591402069797</v>
       </c>
       <c r="O17">
-        <v>17.67960981981205</v>
+        <v>16.00484773613551</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.850106773271</v>
+        <v>25.91817593634201</v>
       </c>
       <c r="C18">
-        <v>10.93710104264379</v>
+        <v>18.04784899835359</v>
       </c>
       <c r="D18">
-        <v>6.351372551546965</v>
+        <v>8.742051034148465</v>
       </c>
       <c r="E18">
-        <v>19.55350893769889</v>
+        <v>36.57627643028565</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>23.09097437294959</v>
+        <v>30.04328319522988</v>
       </c>
       <c r="H18">
-        <v>12.03051359896979</v>
+        <v>8.508570244138831</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>15.533404074447</v>
+        <v>10.4870282472505</v>
       </c>
       <c r="O18">
-        <v>17.66781257529947</v>
+        <v>15.85416919030039</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.79702882930497</v>
+        <v>25.80736863612816</v>
       </c>
       <c r="C19">
-        <v>10.90096800106682</v>
+        <v>17.97707184297155</v>
       </c>
       <c r="D19">
-        <v>6.339914421985217</v>
+        <v>8.702395488034876</v>
       </c>
       <c r="E19">
-        <v>19.46977594881948</v>
+        <v>36.39793805649488</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>23.0599281678595</v>
+        <v>29.9036577360969</v>
       </c>
       <c r="H19">
-        <v>12.03171968275219</v>
+        <v>8.493278781476498</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>15.53665723787499</v>
+        <v>10.49654255320527</v>
       </c>
       <c r="O19">
-        <v>17.66392178773061</v>
+        <v>15.80329604435519</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.03443265737676</v>
+        <v>26.30280583786665</v>
       </c>
       <c r="C20">
-        <v>11.06253720572674</v>
+        <v>18.29366635527071</v>
       </c>
       <c r="D20">
-        <v>6.391425751744843</v>
+        <v>8.879787763634086</v>
       </c>
       <c r="E20">
-        <v>19.84385318472134</v>
+        <v>37.19708112186076</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>23.20006232196189</v>
+        <v>30.53048554718974</v>
       </c>
       <c r="H20">
-        <v>12.02649840825618</v>
+        <v>8.562726061554624</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>15.52213895227338</v>
+        <v>10.4540131148958</v>
       </c>
       <c r="O20">
-        <v>17.68184237960993</v>
+        <v>16.03280312390152</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.80633437582047</v>
+        <v>27.9117745710942</v>
       </c>
       <c r="C21">
-        <v>11.58714581957586</v>
+        <v>19.32411671574405</v>
       </c>
       <c r="D21">
-        <v>6.563414062458563</v>
+        <v>9.457452802446479</v>
       </c>
       <c r="E21">
-        <v>21.05306190051721</v>
+        <v>39.82517942002981</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>23.67775724232886</v>
+        <v>32.6106966826955</v>
       </c>
       <c r="H21">
-        <v>12.012572790936</v>
+        <v>8.807347245701855</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>15.47548024342784</v>
+        <v>10.31625229033085</v>
       </c>
       <c r="O21">
-        <v>17.74923397488892</v>
+        <v>16.81383128304561</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.29128807805013</v>
+        <v>28.92251788240896</v>
       </c>
       <c r="C22">
-        <v>11.91624504324614</v>
+        <v>19.97303860206551</v>
       </c>
       <c r="D22">
-        <v>6.674799765854648</v>
+        <v>9.821615611315012</v>
       </c>
       <c r="E22">
-        <v>21.80801825291463</v>
+        <v>41.50373718970036</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>23.99442735728536</v>
+        <v>33.9517584096414</v>
       </c>
       <c r="H22">
-        <v>12.00617646312298</v>
+        <v>8.975876859157733</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>15.44656407714858</v>
+        <v>10.23020845358063</v>
       </c>
       <c r="O22">
-        <v>17.79859823651951</v>
+        <v>17.51353821987882</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.03426582567513</v>
+        <v>28.38675522732558</v>
       </c>
       <c r="C23">
-        <v>11.7418675246386</v>
+        <v>19.6289229141538</v>
       </c>
       <c r="D23">
-        <v>6.615457492374204</v>
+        <v>9.628458793928745</v>
       </c>
       <c r="E23">
-        <v>21.4083054677985</v>
+        <v>40.61120284033275</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>23.82504698356261</v>
+        <v>33.2376351799071</v>
       </c>
       <c r="H23">
-        <v>12.00934227292949</v>
+        <v>8.885121210776129</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>15.46185295675444</v>
+        <v>10.27575520928676</v>
       </c>
       <c r="O23">
-        <v>17.77176714497698</v>
+        <v>17.1357809594217</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.02149145049572</v>
+        <v>26.27580966155944</v>
       </c>
       <c r="C24">
-        <v>11.05373275055239</v>
+        <v>18.2764061794929</v>
       </c>
       <c r="D24">
-        <v>6.388600512658221</v>
+        <v>8.870115993805939</v>
       </c>
       <c r="E24">
-        <v>19.82349031918519</v>
+        <v>37.1534181324559</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>23.19233935174436</v>
+        <v>30.49616183725953</v>
       </c>
       <c r="H24">
-        <v>12.02677155223966</v>
+        <v>8.558870480441598</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>15.522928241971</v>
+        <v>10.45632971689983</v>
       </c>
       <c r="O24">
-        <v>17.68083118084764</v>
+        <v>16.02016210982775</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.84761771225597</v>
+        <v>23.8195157509773</v>
       </c>
       <c r="C25">
-        <v>10.25355573605997</v>
+        <v>16.71069859312372</v>
       </c>
       <c r="D25">
-        <v>6.14092798251398</v>
+        <v>7.992795628878442</v>
       </c>
       <c r="E25">
-        <v>17.96117850399246</v>
+        <v>33.23509837436735</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>22.53323823922042</v>
+        <v>27.52785163044775</v>
       </c>
       <c r="H25">
-        <v>12.05712362738627</v>
+        <v>8.242570565333397</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>15.59560020016266</v>
+        <v>10.66721613236147</v>
       </c>
       <c r="O25">
-        <v>17.60576858884735</v>
+        <v>14.93651257688965</v>
       </c>
     </row>
   </sheetData>
